--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>Chapter1</t>
   </si>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>두더지광장/Plaza_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>예상플레이 턴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
     <t>Chapter3</t>
   </si>
   <si>
-    <t>숲속 / forest_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마법사용하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,11 +312,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>상처입은 고릴라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숲으로 들어선 주인공은 상처를 입고 쓰러진 고릴라 한마리를 발견한다. 물의 정령이 나타나 치료해줄수 있다고 말하고 고릴라를 치료해준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,갈색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역마법사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>막사,침대,무장한 고릴라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상처입은 고릴라 무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라 여러마리를 동시에 치료하기.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상처를 치료해준 고릴라와 함께 주둔지로 돌아오니 더 많은 고릴라가 상처입어 쓰러져있었고, 고릴라가 부족장에게 자초지종을 말하고 부족장은 주인공에게 치료를 부탁한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지광장/ g_plaza_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공터 / f_plaza_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라주둔지 / g_base_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신하기,줍기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이의 상태를 살펴보고 원인을 알아보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상처입은 고릴라</t>
+    <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검고 거대한 호랑이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신용 돌,은신용 수풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어느정도 부상자 정리가 된 후 부족장은 자신들이 모시던 숲의 왕이였던 호랑이가 미쳐날뛰게 되었고, 그 호랑이를 진정시키기 위한 전투를 벌이게 되었다고 하며, 지금 호랑이의 동태를 살펴주기를 주인공에게 부탁한다. 부탁을 받은 주인공은 다시 공터로 향하게 되는데… </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라주둔지 / g_base_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +431,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -434,12 +523,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,8 +559,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -768,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,7 +1039,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
@@ -955,7 +1051,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
     <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>55</v>
@@ -993,7 +1096,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1010,10 +1113,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,7 +1136,7 @@
         <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,7 +1156,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1073,7 +1176,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1196,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1113,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1183,12 +1286,12 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
@@ -1206,10 +1309,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3">
         <v>42430</v>
@@ -1232,22 +1342,34 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
@@ -1256,10 +1378,14 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -1268,10 +1394,14 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
@@ -1282,8 +1412,12 @@
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -1292,10 +1426,14 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -1303,9 +1441,15 @@
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -1313,7 +1457,9 @@
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1323,7 +1469,9 @@
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1333,7 +1481,9 @@
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1343,7 +1493,9 @@
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1351,13 +1503,25 @@
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>Chapter1</t>
   </si>
@@ -401,6 +401,78 @@
   </si>
   <si>
     <t>고릴라주둔지 / g_base_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서진 목책, 바위,상처입은 고릴라,검은액체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 조종하는 검은생명체 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검고 거대한 호랑이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 조종하는 암흑물질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압용 올가미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,갈색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 살피고 돌아와 부족장에게 보고를 하는 순간 호랑이가 주둔지로 난입하게 되고 전투가 시작된다. 미쳐날뛰는 호랑이를 제압하기위해 힘을 합치는 주인공과 고릴라들은 결국 호랑이를 제압하는데 성공하지만…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛점이 없어진 호랑이를 조종하는 검은 물체와의 전투가 이어진다. 뛰어난 호랑이는 물리적능력에 마법공격까지 더해진 전투를 주인공과 고릴라는 죽이지 않고 제압해야한다. 생명령이 3이하로 만들고 제압용 올가미를 발동시켜 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1370,8 +1442,12 @@
       <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1386,8 +1462,12 @@
       <c r="D32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1402,8 +1482,12 @@
       <c r="D33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1418,8 +1502,12 @@
       <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1434,8 +1522,12 @@
       <c r="D35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -1450,8 +1542,12 @@
       <c r="D36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
@@ -1484,10 +1580,18 @@
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -1496,10 +1600,18 @@
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
@@ -1511,17 +1623,171 @@
       <c r="C41" s="8">
         <v>5</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="8">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8">
+        <v>7</v>
+      </c>
+      <c r="F41" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42462</v>
+      </c>
+      <c r="D43" s="3">
+        <v>42463</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42464</v>
+      </c>
+      <c r="F43" s="3">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="246">
   <si>
     <t>Chapter1</t>
   </si>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수상한통로/Passage_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>두더지마을입구/Passage_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,6 +469,522 @@
   </si>
   <si>
     <t>Chapter4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리위로 튀어나온 촉수들 물리치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행을 계속하는 주인공은 커다란 강을 만나게 되고, 강을 건너기위해 다리를 건너는데.. 갑자기 물속에서 촉수가 튀어나와 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 정령을 소환하기위한 재료를 모은다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기에 의해 사냥을 하지 못하는 악어들을 만나 메기소탕에 도움을 주기로하는 주인공은 수중에서 호흡하기 위한 방법을 찾고있다. 그리하여 물정령을 현세로 소환하려하는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리 위 /bridge_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기의 부하인 가재들과 촉수들을 물리친다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,물풀,돌,동물뼈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 준비를 끝내고 물 속으로 들어가려는 주인공과 악어들을 막기위해 가재와 촉수들이 공격해오는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구/r_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구를 지키는 정예병력과 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리,물,풀,부서진 다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,풀,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌,물풀,공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,물도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발광 물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴내부/r_cave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한통로/passage_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기와 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,물풀,공기방울,동굴벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기,가재,도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,초록색,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,고드름,얼음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산동굴/s_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원 / snowfield_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,얼음,눈덮힌 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈골렘,눈사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염동굴입구 / f_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,종유석,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥지,깃털,마법진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기,불끄기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한 불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,주황색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에 옮겨 붙은 불들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 / tail_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개 / wing_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 / back_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 / head_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 심장/heart_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피,움직이는벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나는벽,불타는 피</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -594,6 +1106,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,7 +1126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,6 +1156,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,15 +1462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="30.625" customWidth="1"/>
+    <col min="1" max="6" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1111,683 +1637,1441 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="8">
+        <v>149</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
     <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>42401</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>42402</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>42403</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>42404</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <v>42405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D29" s="8">
         <v>3</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E29" s="8">
         <v>7</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F29" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3">
         <v>42430</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>42431</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>42432</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>42433</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>42434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="8">
+    </row>
+    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C44" s="8">
         <v>5</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D44" s="8">
         <v>5</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E44" s="8">
         <v>7</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F44" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="3">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="3">
         <v>42461</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C46" s="3">
         <v>42462</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D46" s="3">
         <v>42463</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E46" s="3">
         <v>42464</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F46" s="3">
         <v>42465</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="B57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5</v>
+      </c>
+      <c r="C59" s="8">
+        <v>5</v>
+      </c>
+      <c r="D59" s="8">
+        <v>7</v>
+      </c>
+      <c r="E59" s="8">
+        <v>10</v>
+      </c>
+      <c r="F59" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42491</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42492</v>
+      </c>
+      <c r="D61" s="3">
+        <v>42493</v>
+      </c>
+      <c r="E61" s="3">
+        <v>42494</v>
+      </c>
+      <c r="F61" s="3">
+        <v>42495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="8">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8">
+        <v>7</v>
+      </c>
+      <c r="D74" s="8">
+        <v>7</v>
+      </c>
+      <c r="E74" s="8">
+        <v>10</v>
+      </c>
+      <c r="F74" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="3">
+        <v>42522</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42523</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42524</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42525</v>
+      </c>
+      <c r="F76" s="3">
+        <v>42526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="8">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8">
+        <v>7</v>
+      </c>
+      <c r="D89" s="8">
+        <v>10</v>
+      </c>
+      <c r="E89" s="8">
+        <v>12</v>
+      </c>
+      <c r="F89" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>뼈조각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>쥐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
   </si>
   <si>
     <t>뼈,짚단,바위,자연광</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반공격하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,781 +202,789 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>도망가는 두더지를 추적하는 주인공과 토끼들은 여러갈래로 나뉘어진 지하 터널에서 발자국,흔들리는 랜턴,당근조각등을 살펴서 두더지를 추적한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙색,주황색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter2</t>
+  </si>
+  <si>
+    <t>당근창고/warehouse_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지마을입구/Passage_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구를 지키는 두더지 병력와 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토템,초소,망루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지창병,두더지궁수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공적인 추적 끝에 드디어 두더지굴의 입구에 도착한 주인공과 토끼들을 공격하는 두더지 경비병들과 전투를 벌인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙색,나무색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상플레이 턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지대장과 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌,당근상자,곡괭이,안전모,기둥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지대장,두더지창병,두더지궁수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙색,주황색,나무색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구의 경비병을 처리하고 광장으로 들어선 주인공과 토끼들 앞에 두더지대장이 나타나고, 무시무시한 지진공격을 하는 두더지대장과 전투를 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter3</t>
+  </si>
+  <si>
+    <t>마법사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령술을 사용해서 상처입은 고릴라 치료하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상처입은 고릴라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숲으로 들어선 주인공은 상처를 입고 쓰러진 고릴라 한마리를 발견한다. 물의 정령이 나타나 치료해줄수 있다고 말하고 고릴라를 치료해준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,갈색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역마법사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>막사,침대,무장한 고릴라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상처입은 고릴라 무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라 여러마리를 동시에 치료하기.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상처를 치료해준 고릴라와 함께 주둔지로 돌아오니 더 많은 고릴라가 상처입어 쓰러져있었고, 고릴라가 부족장에게 자초지종을 말하고 부족장은 주인공에게 치료를 부탁한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지광장/ g_plaza_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공터 / f_plaza_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라주둔지 / g_base_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이의 상태를 살펴보고 원인을 알아보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검고 거대한 호랑이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신용 돌,은신용 수풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어느정도 부상자 정리가 된 후 부족장은 자신들이 모시던 숲의 왕이였던 호랑이가 미쳐날뛰게 되었고, 그 호랑이를 진정시키기 위한 전투를 벌이게 되었다고 하며, 지금 호랑이의 동태를 살펴주기를 주인공에게 부탁한다. 부탁을 받은 주인공은 다시 공터로 향하게 되는데… </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고릴라주둔지 / g_base_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서진 목책, 바위,상처입은 고릴라,검은액체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 조종하는 검은생명체 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검고 거대한 호랑이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 조종하는 암흑물질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압용 올가미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,갈색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 살피고 돌아와 부족장에게 보고를 하는 순간 호랑이가 주둔지로 난입하게 되고 전투가 시작된다. 미쳐날뛰는 호랑이를 제압하기위해 힘을 합치는 주인공과 고릴라들은 결국 호랑이를 제압하는데 성공하지만…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛점이 없어진 호랑이를 조종하는 검은 물체와의 전투가 이어진다. 뛰어난 호랑이는 물리적능력에 마법공격까지 더해진 전투를 주인공과 고릴라는 죽이지 않고 제압해야한다. 생명령이 3이하로 만들고 제압용 올가미를 발동시켜 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리위로 튀어나온 촉수들 물리치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행을 계속하는 주인공은 커다란 강을 만나게 되고, 강을 건너기위해 다리를 건너는데.. 갑자기 물속에서 촉수가 튀어나와 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 정령을 소환하기위한 재료를 모은다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기에 의해 사냥을 하지 못하는 악어들을 만나 메기소탕에 도움을 주기로하는 주인공은 수중에서 호흡하기 위한 방법을 찾고있다. 그리하여 물정령을 현세로 소환하려하는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리 위 /bridge_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기의 부하인 가재들과 촉수들을 물리친다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,물풀,돌,동물뼈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 준비를 끝내고 물 속으로 들어가려는 주인공과 악어들을 막기위해 가재와 촉수들이 공격해오는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구/r_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구를 지키는 정예병력과 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리,물,풀,부서진 다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,풀,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌,물풀,공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,물도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발광 물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴내부/r_cave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한통로/passage_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기와 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,물풀,공기방울,동굴벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기,가재,도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,초록색,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,고드름,얼음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산동굴/s_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원 / snowfield_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,얼음,눈덮힌 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈골렘,눈사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염동굴입구 / f_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,종유석,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥지,깃털,마법진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한 불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,주황색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에 옮겨 붙은 불들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 / tail_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개 / wing_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 / back_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 / head_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 심장/heart_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피,움직이는벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나는벽,불타는 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신하기,수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>나무뿌리,돌,곡괭이,광산용랜턴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>발자국,흔들리는 랜턴,당근조각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도망가는 두더지를 추적하는 주인공과 토끼들은 여러갈래로 나뉘어진 지하 터널에서 발자국,흔들리는 랜턴,당근조각등을 살펴서 두더지를 추적한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙색,주황색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter2</t>
-  </si>
-  <si>
-    <t>당근창고/warehouse_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두더지마을입구/Passage_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입구를 지키는 두더지 병력와 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토템,초소,망루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두더지창병,두더지궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>망루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공적인 추적 끝에 드디어 두더지굴의 입구에 도착한 주인공과 토끼들을 공격하는 두더지 경비병들과 전투를 벌인다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙색,나무색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상플레이 턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두더지대장과 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌,당근상자,곡괭이,안전모,기둥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두더지대장,두더지창병,두더지궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진공격을 피하는 흙더미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙색,주황색,나무색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입구의 경비병을 처리하고 광장으로 들어선 주인공과 토끼들 앞에 두더지대장이 나타나고, 무시무시한 지진공격을 하는 두더지대장과 전투를 시작한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter3</t>
-  </si>
-  <si>
-    <t>마법사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령술을 사용해서 상처입은 고릴라 치료하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상처입은 고릴라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">숲으로 들어선 주인공은 상처를 입고 쓰러진 고릴라 한마리를 발견한다. 물의 정령이 나타나 치료해줄수 있다고 말하고 고릴라를 치료해준다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,갈색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역마법사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>막사,침대,무장한 고릴라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상처입은 고릴라 무리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고릴라 여러마리를 동시에 치료하기.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상처를 치료해준 고릴라와 함께 주둔지로 돌아오니 더 많은 고릴라가 상처입어 쓰러져있었고, 고릴라가 부족장에게 자초지종을 말하고 부족장은 주인공에게 치료를 부탁한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두더지광장/ g_plaza_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공터 / f_plaza_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고릴라주둔지 / g_base_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신하기,줍기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이의 상태를 살펴보고 원인을 알아보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무,넘어진나무,할퀴어진나무,부서진돌,파헤쳐진 땅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검고 거대한 호랑이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신용 돌,은신용 수풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어느정도 부상자 정리가 된 후 부족장은 자신들이 모시던 숲의 왕이였던 호랑이가 미쳐날뛰게 되었고, 그 호랑이를 진정시키기 위한 전투를 벌이게 되었다고 하며, 지금 호랑이의 동태를 살펴주기를 주인공에게 부탁한다. 부탁을 받은 주인공은 다시 공터로 향하게 되는데… </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고릴라주둔지 / g_base_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서진 목책, 바위,상처입은 고릴라,검은액체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 조종하는 검은생명체 제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검고 거대한 호랑이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 조종하는 암흑물질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제압용 올가미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,갈색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 살피고 돌아와 부족장에게 보고를 하는 순간 호랑이가 주둔지로 난입하게 되고 전투가 시작된다. 미쳐날뛰는 호랑이를 제압하기위해 힘을 합치는 주인공과 고릴라들은 결국 호랑이를 제압하는데 성공하지만…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>촛점이 없어진 호랑이를 조종하는 검은 물체와의 전투가 이어진다. 뛰어난 호랑이는 물리적능력에 마법공격까지 더해진 전투를 주인공과 고릴라는 죽이지 않고 제압해야한다. 생명령이 3이하로 만들고 제압용 올가미를 발동시켜 제압한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리위로 튀어나온 촉수들 물리치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>촉수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행을 계속하는 주인공은 커다란 강을 만나게 되고, 강을 건너기위해 다리를 건너는데.. 갑자기 물속에서 촉수가 튀어나와 공격한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무색,파란색,초록색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강가/riverside_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 정령을 소환하기위한 재료를 모은다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개구리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물 메기에 의해 사냥을 하지 못하는 악어들을 만나 메기소탕에 도움을 주기로하는 주인공은 수중에서 호흡하기 위한 방법을 찾고있다. 그리하여 물정령을 현세로 소환하려하는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,파란색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리 위 /bridge_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강가/riverside_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메기의 부하인 가재들과 촉수들을 물리친다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물,물풀,돌,동물뼈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가재,촉수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 준비를 끝내고 물 속으로 들어가려는 주인공과 악어들을 막기위해 가재와 촉수들이 공격해오는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,파란색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴입구/r_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴입구를 지키는 정예병력과 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리,물,풀,부서진 다리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물,풀,돌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌,물풀,공기방울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가재,물도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발광 물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,파란색,초록색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴내부/r_cave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한통로/passage_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물 메기와 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,물풀,공기방울,동굴벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메기,가재,도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,초록색,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,고드름,얼음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산동굴/s_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원 / snowfield_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,얼음,눈덮힌 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈골렘,눈사람</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염동굴입구 / f_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 제압한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,종유석,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티를 제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둥지,깃털,마법진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기,불끄기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활한 불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소화전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,주황색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변에 옮겨 붙은 불들</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리 / tail_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옮기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개 / wing_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등 / back_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 / head_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 심장/heart_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피,움직이는벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛나는벽,불타는 피</t>
+    <t>발자국,흔들리는 랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙더미</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1506,13 +1506,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1520,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1534,13 +1534,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1562,13 +1562,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1612,13 +1612,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1626,32 +1626,32 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3">
         <v>42401</v>
@@ -1696,19 +1696,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1716,19 +1716,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1736,19 +1736,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1756,19 +1756,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1785,10 +1785,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1796,19 +1796,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1816,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1849,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
@@ -1866,19 +1866,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1886,44 +1886,44 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3">
         <v>42430</v>
@@ -1974,19 +1974,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1994,19 +1994,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2014,19 +2014,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2034,19 +2034,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2057,16 +2057,16 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2074,19 +2074,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2094,19 +2094,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2114,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2138,19 +2138,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2158,44 +2158,44 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3">
         <v>42461</v>
@@ -2246,19 +2246,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2266,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2286,19 +2286,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2306,19 +2306,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2326,19 +2326,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2346,19 +2346,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2366,19 +2366,19 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2386,19 +2386,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2406,19 +2406,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2426,19 +2426,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2446,44 +2446,44 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B61" s="3">
         <v>42491</v>
@@ -2534,19 +2534,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2554,19 +2554,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2574,19 +2574,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2594,19 +2594,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2614,19 +2614,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2634,19 +2634,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2654,19 +2654,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2674,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2688,10 +2688,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2702,19 +2702,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2722,44 +2722,44 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B76" s="3">
         <v>42522</v>
@@ -2810,19 +2810,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2830,19 +2830,19 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2850,19 +2850,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2870,19 +2870,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2890,19 +2890,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2910,19 +2910,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2930,19 +2930,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2950,19 +2950,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2970,19 +2970,19 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2990,19 +2990,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3010,44 +3010,44 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B89" s="8">
         <v>5</v>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
   <si>
     <t>Chapter1</t>
   </si>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물,물풀,돌,동물뼈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가재,촉수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -552,439 +548,447 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>물,풀,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,물도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발광 물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴내부/r_cave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한통로/passage_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기와 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기,가재,도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,초록색,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,고드름,얼음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산동굴/s_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원 / snowfield_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,얼음,눈덮힌 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈골렘,눈사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염동굴입구 / f_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,종유석,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥지,깃털,마법진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한 불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,주황색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에 옮겨 붙은 불들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 / tail_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개 / wing_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 / back_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 / head_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 심장/heart_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피,움직이는벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나는벽,불타는 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신하기,수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무뿌리,돌,곡괭이,광산용랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발자국,흔들리는 랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙더미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>다리,물,풀,부서진 다리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물,풀,돌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌,물풀,공기방울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가재,물도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발광 물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,파란색,초록색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴내부/r_cave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한통로/passage_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물 메기와 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,물풀,공기방울,동굴벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메기,가재,도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,초록색,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,고드름,얼음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산동굴/s_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원 / snowfield_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,얼음,눈덮힌 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈골렘,눈사람</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염동굴입구 / f_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 제압한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,종유석,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티를 제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둥지,깃털,마법진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활한 불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소화전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,주황색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변에 옮겨 붙은 불들</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리 / tail_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옮기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개 / wing_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등 / back_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 / head_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 심장/heart_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피,움직이는벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛나는벽,불타는 피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신하기,수집하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈조각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무뿌리,돌,곡괭이,광산용랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발자국,흔들리는 랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙더미</t>
+    <t>물,물풀,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물풀,공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,물풀,동굴벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌,물풀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1464,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1513,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -1562,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1702,7 +1706,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>53</v>
@@ -1762,7 +1766,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>55</v>
@@ -1802,13 +1806,13 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1903,22 +1907,22 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2000,7 +2004,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>93</v>
@@ -2175,22 +2179,22 @@
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2255,10 +2259,10 @@
         <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2278,7 +2282,7 @@
         <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2295,10 +2299,10 @@
         <v>130</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2306,19 +2310,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2332,13 +2336,13 @@
         <v>121</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2355,10 +2359,10 @@
         <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2372,13 +2376,13 @@
         <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2435,10 +2439,10 @@
         <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2452,33 +2456,33 @@
         <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2511,7 +2515,7 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B61" s="3">
         <v>42491</v>
@@ -2534,19 +2538,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2557,16 +2561,16 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2574,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2594,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2614,19 +2618,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2634,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2654,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2674,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2688,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2702,19 +2706,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2722,39 +2726,39 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2787,7 +2791,7 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B76" s="3">
         <v>42522</v>
@@ -2810,19 +2814,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2830,19 +2834,19 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2850,19 +2854,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="E79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2870,19 +2874,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2890,19 +2894,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2910,19 +2914,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2930,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2950,19 +2954,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2970,19 +2974,19 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2990,19 +2994,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3010,39 +3014,39 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -89,19 +89,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>뼈,짚단,바위,자연광</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대화가능한벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정령과 대화하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,짚단,바위,자연광,빛나는 벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -989,6 +981,14 @@
   </si>
   <si>
     <t>돌,물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,짚단,바위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,짚단,바위,빛나는 벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1510,13 +1510,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1530,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1538,13 +1538,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,13 +1566,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1580,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1630,32 +1630,32 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
         <v>42401</v>
@@ -1700,19 +1700,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1720,19 +1720,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1740,19 +1740,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1760,19 +1760,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1789,10 +1789,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1800,19 +1800,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1820,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1853,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -1890,44 +1890,44 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3">
         <v>42430</v>
@@ -1978,19 +1978,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1998,19 +1998,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2018,19 +2018,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2038,19 +2038,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2061,16 +2061,16 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2078,19 +2078,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2098,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2118,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2130,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2142,19 +2142,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2162,44 +2162,44 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3">
         <v>42461</v>
@@ -2250,19 +2250,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2270,19 +2270,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2290,19 +2290,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2310,19 +2310,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2330,19 +2330,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,19 +2350,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2370,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,19 +2390,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2410,19 +2410,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2430,19 +2430,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,44 +2450,44 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B61" s="3">
         <v>42491</v>
@@ -2538,19 +2538,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2558,19 +2558,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2598,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2618,19 +2618,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2638,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2658,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2678,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2692,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2706,19 +2706,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2726,44 +2726,44 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B76" s="3">
         <v>42522</v>
@@ -2814,19 +2814,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2834,19 +2834,19 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2854,19 +2854,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2874,19 +2874,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2894,19 +2894,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2914,19 +2914,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2954,19 +2954,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2974,19 +2974,19 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2994,19 +2994,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3014,44 +3014,44 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B89" s="8">
         <v>5</v>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -388,607 +388,607 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>검고 거대한 호랑이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압용 올가미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,갈색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 살피고 돌아와 부족장에게 보고를 하는 순간 호랑이가 주둔지로 난입하게 되고 전투가 시작된다. 미쳐날뛰는 호랑이를 제압하기위해 힘을 합치는 주인공과 고릴라들은 결국 호랑이를 제압하는데 성공하지만…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛점이 없어진 호랑이를 조종하는 검은 물체와의 전투가 이어진다. 뛰어난 호랑이는 물리적능력에 마법공격까지 더해진 전투를 주인공과 고릴라는 죽이지 않고 제압해야한다. 생명령이 3이하로 만들고 제압용 올가미를 발동시켜 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리위로 튀어나온 촉수들 물리치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행을 계속하는 주인공은 커다란 강을 만나게 되고, 강을 건너기위해 다리를 건너는데.. 갑자기 물속에서 촉수가 튀어나와 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 정령을 소환하기위한 재료를 모은다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기에 의해 사냥을 하지 못하는 악어들을 만나 메기소탕에 도움을 주기로하는 주인공은 수중에서 호흡하기 위한 방법을 찾고있다. 그리하여 물정령을 현세로 소환하려하는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리 위 /bridge_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가/riverside_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기의 부하인 가재들과 촉수들을 물리친다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,촉수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 준비를 끝내고 물 속으로 들어가려는 주인공과 악어들을 막기위해 가재와 촉수들이 공격해오는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색,파란색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구/r_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴입구를 지키는 정예병력과 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물,풀,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가재,물도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불,달빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발광 물풀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,파란색,초록색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴내부/r_cave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한통로/passage_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물 메기와 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메기,가재,도마뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색,초록색,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,고드름,얼음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산동굴/s_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원 / snowfield_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈,얼음,눈덮힌 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈골렘,눈사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염동굴입구 / f_cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 제압한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,종유석,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예티를 제압하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,회색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암,불타는나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥지,깃털,마법진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조둥지 / nest_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한 불사조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색,주황색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에 옮겨 붙은 불들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 / tail_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개 / wing_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 / back_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등에 기생하는 슬라임들을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색,빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 / head_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비늘,용암,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤의 심장/heart_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피,움직이는벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나는벽,불타는 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신하기,수집하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전투하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무뿌리,돌,곡괭이,광산용랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발자국,흔들리는 랜턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙더미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리,물,풀,부서진 다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물풀,공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,짚단,바위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,짚단,바위,빛나는 벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이를 조종하는 암흑물질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>호랑이를 조종하는 검은생명체 제압하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검고 거대한 호랑이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 조종하는 암흑물질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제압용 올가미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,갈색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호랑이를 살피고 돌아와 부족장에게 보고를 하는 순간 호랑이가 주둔지로 난입하게 되고 전투가 시작된다. 미쳐날뛰는 호랑이를 제압하기위해 힘을 합치는 주인공과 고릴라들은 결국 호랑이를 제압하는데 성공하지만…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>촛점이 없어진 호랑이를 조종하는 검은 물체와의 전투가 이어진다. 뛰어난 호랑이는 물리적능력에 마법공격까지 더해진 전투를 주인공과 고릴라는 죽이지 않고 제압해야한다. 생명령이 3이하로 만들고 제압용 올가미를 발동시켜 제압한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리위로 튀어나온 촉수들 물리치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>촉수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행을 계속하는 주인공은 커다란 강을 만나게 되고, 강을 건너기위해 다리를 건너는데.. 갑자기 물속에서 촉수가 튀어나와 공격한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무색,파란색,초록색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강가/riverside_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 정령을 소환하기위한 재료를 모은다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개구리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물 메기에 의해 사냥을 하지 못하는 악어들을 만나 메기소탕에 도움을 주기로하는 주인공은 수중에서 호흡하기 위한 방법을 찾고있다. 그리하여 물정령을 현세로 소환하려하는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,파란색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리 위 /bridge_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강가/riverside_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메기의 부하인 가재들과 촉수들을 물리친다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가재,촉수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 준비를 끝내고 물 속으로 들어가려는 주인공과 악어들을 막기위해 가재와 촉수들이 공격해오는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색,파란색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴입구/r_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴입구를 지키는 정예병력과 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물,풀,돌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가재,물도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 물 속으로 들어온 주인공과 악어들은 메기가 사는 동굴을 찾게되는데… 주인공과 악어들을 맞이하러 나온 정예 병력들이 주인공 일행을 공격해온다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불,달빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발광 물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,파란색,초록색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴내부/r_cave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한통로/passage_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴물 메기와 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메기,가재,도마뱀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색,초록색,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마침내 동굴의 끝에 도달한 악어와 주인공은 괴물 메기를 잡기위해  전투를 벌인다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,고드름,얼음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산동굴/s_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원 / snowfield_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈,얼음,눈덮힌 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈골렘,눈사람</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설원에서 길을 잃은 주인공은 설산의 동굴로 들어 가게 되고, 그곳에 살고있던 예티의 공격을 받게 된다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설산에 사는 불사조에 대한 이야기를 듣고, 함께 불사조를 찾아 나서는 주인공과 예티무리들은 설원에서 눈괴물들을 만나게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염동굴입구 / f_cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 제압한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,종유석,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염골렘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈괴물을 물리치고 불사조가 살고 있는 화염동굴에 도착한 주인공과 예티들은 불사조의 수하인 화염골렘들을 맞이하게 되는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예티를 제압하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,회색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암,불타는나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둥지,깃털,마법진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조의 둥지로 진입하는 주인공과 예티들을 맞이하는 불사조는 강력한 화염공격을 퍼붓는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조둥지 / nest_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활한 불사조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소화전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불사조를 제압하는데 성공하지만, 불사조는 부활하게 된다. 불사조의부활을 저지할 방법을 찾아서 불사조의 즉시부활을 막으면서 제압에 성공해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색,주황색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변에 옮겨 붙은 불들</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리 / tail_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옮기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리에 붙은 슬라임잔해를 치운다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 영역에 발을 들인 주인공 앞에 갑자기 나타나는 드래곤은 자신의 이야기를 들려주는 주인공에게 자신의 몸에 붙은 슬라임들을 제거해주길 요구한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개 / wing_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하기위해 드래곤의 몸위를 돌아다니는 주인공은 날개에 도착하니 잔해가아닌 살아움직이는 슬라임을 마주하게된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등 / back_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등에 기생하는 슬라임들을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계속해서 슬라임을 처리하는 주인공은 등에서 슬라임을 조우하게되어 전투한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색,빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 / head_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비늘,용암,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리에 기생하는 슬라임을 처리하러 올라온 주인공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤의 심장/heart_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장에 살고있는 슬라임왕을 잡는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피,움직이는벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">마지막으로 보스슬라임이 살고있는 자신의 심장으로 주인공을 순간이동시켜준다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛나는벽,불타는 피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신하기,수집하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스전투하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈조각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무뿌리,돌,곡괭이,광산용랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발자국,흔들리는 랜턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙더미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리,물,풀,부서진 다리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물,물풀,돌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물풀,공기방울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,물풀,동굴벽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기방울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌,물풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,짚단,바위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈,짚단,바위,빛나는 벽</t>
+    <t>물,수초,돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌,수초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈,수초,동굴벽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1538,13 +1538,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1706,7 +1706,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -1766,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -1806,13 +1806,13 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1907,22 +1907,22 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2004,7 +2004,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>91</v>
@@ -2030,7 +2030,7 @@
         <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2067,10 +2067,10 @@
         <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2090,7 +2090,7 @@
         <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2107,10 +2107,10 @@
         <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2145,16 +2145,16 @@
         <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2168,33 +2168,33 @@
         <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3">
         <v>42461</v>
@@ -2250,19 +2250,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2270,19 +2270,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2290,19 +2290,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2310,19 +2310,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2330,19 +2330,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,19 +2350,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2370,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,19 +2390,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2410,19 +2410,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2430,19 +2430,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,39 +2450,39 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3">
         <v>42491</v>
@@ -2538,19 +2538,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2558,19 +2558,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2598,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2618,19 +2618,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2638,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2658,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2678,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2692,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2706,19 +2706,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2726,39 +2726,39 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2791,7 +2791,7 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B76" s="3">
         <v>42522</v>
@@ -2814,19 +2814,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2834,19 +2834,19 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2854,19 +2854,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2874,19 +2874,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2894,19 +2894,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2914,19 +2914,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,19 +2934,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2954,19 +2954,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2974,19 +2974,19 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2994,19 +2994,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3014,39 +3014,39 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="255">
   <si>
     <t>Chapter1</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>색감</t>
-  </si>
-  <si>
-    <t>동굴안/cave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도망가는 쥐 잡기.</t>
@@ -150,18 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동굴안/cave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열맞추기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옮겨진 당근더미를 열대로 나열한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>선반,당근상자,구멍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -989,6 +973,54 @@
   </si>
   <si>
     <t>뼈,수초,동굴벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴안/cave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">턴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레잡기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레를잡고, 선반을 치운다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선반을 치우고 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마리를 생성한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동후 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1121,6 +1153,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1130,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +1210,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1468,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1510,13 +1560,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1524,13 +1574,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1538,13 +1588,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1552,13 +1602,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1580,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1602,13 +1652,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1616,13 +1666,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1630,32 +1680,32 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
@@ -1677,7 +1727,7 @@
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3">
         <v>42401</v>
@@ -1700,19 +1750,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1720,19 +1770,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1740,19 +1790,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1760,19 +1810,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1780,19 +1830,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1800,19 +1850,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1820,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1850,19 +1900,19 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1870,19 +1920,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1890,44 +1940,44 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
@@ -1955,7 +2005,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3">
         <v>42430</v>
@@ -1978,19 +2028,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1998,19 +2048,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2018,19 +2068,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2038,19 +2088,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2058,19 +2108,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2078,19 +2128,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2098,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2118,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2130,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2142,19 +2192,19 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2162,44 +2212,44 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -2227,7 +2277,7 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B46" s="3">
         <v>42461</v>
@@ -2250,19 +2300,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2270,19 +2320,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2290,19 +2340,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2310,19 +2360,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2330,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,19 +2400,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2370,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,19 +2440,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2410,19 +2460,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2430,19 +2480,19 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,44 +2500,44 @@
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
@@ -2515,7 +2565,7 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B61" s="3">
         <v>42491</v>
@@ -2538,19 +2588,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2558,19 +2608,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,19 +2628,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2598,19 +2648,19 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2618,19 +2668,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2638,19 +2688,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2658,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2678,10 +2728,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2692,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2706,19 +2756,19 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2726,44 +2776,44 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F73" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
@@ -2791,7 +2841,7 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B76" s="3">
         <v>42522</v>
@@ -2814,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2834,19 +2884,19 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2854,19 +2904,19 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2874,19 +2924,19 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2894,19 +2944,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2914,19 +2964,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2954,19 +3004,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2974,19 +3024,19 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2994,19 +3044,19 @@
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3014,44 +3064,44 @@
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B89" s="8">
         <v>5</v>
@@ -3086,14 +3136,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획문서/비트차트.xlsx
+++ b/기획문서/비트차트.xlsx
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E28"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
